--- a/csv/rf/rf_pc15_final.xlsx
+++ b/csv/rf/rf_pc15_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3287037037037037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07243558228002943</v>
+        <v>0.03247347762361144</v>
       </c>
     </row>
   </sheetData>
@@ -146,10 +146,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -169,19 +169,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -192,22 +192,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -215,22 +215,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -241,19 +241,19 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.0</v>
       </c>
       <c r="F6" t="n">
         <v>22.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -261,22 +261,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" t="n">
         <v>3.0</v>
       </c>
       <c r="G7" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>

--- a/csv/rf/rf_pc15_final.xlsx
+++ b/csv/rf/rf_pc15_final.xlsx
@@ -104,7 +104,7 @@
         <v>0.3287037037037037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03247347762361144</v>
+        <v>0.08317886919065076</v>
       </c>
     </row>
   </sheetData>
@@ -146,10 +146,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -158,10 +158,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -172,16 +172,16 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -192,22 +192,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -215,22 +215,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
         <v>20.0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -241,19 +241,19 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -261,22 +261,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>
